--- a/db/vagas.xlsx
+++ b/db/vagas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">TITULO</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">CIDADE</t>
   </si>
   <si>
+    <t xml:space="preserve">ESTADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">DESCRICAO</t>
   </si>
   <si>
@@ -43,13 +46,28 @@
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaga Motorista Rodoviário D - Rio de Janeiro</t>
+    <t xml:space="preserve">TELEFONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA INICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA FINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaga Motorista Rodoviário D – Rio de Janeiro</t>
   </si>
   <si>
     <t xml:space="preserve">Motorista</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio de Janeiro-RJ</t>
+    <t xml:space="preserve">Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ</t>
   </si>
   <si>
     <t xml:space="preserve">Início imediato. Trabalhe conosco/Oportunidade de emprego. Período integral - Início imediato. Interessados deverão enviar currículo SOMENTE por e-mail.</t>
@@ -64,7 +82,10 @@
     <t xml:space="preserve">Separador de Congelados</t>
   </si>
   <si>
-    <t xml:space="preserve">Jundiaí-SP</t>
+    <t xml:space="preserve">Jundiaí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
   </si>
   <si>
     <t xml:space="preserve">Interessados devem encaminhar o currículo atualizado para o email. Disponibilidade total de horário. Ensino Médio Completo. Tipo de Vaga CLT. Assistência Médica, Odontológica, Vale Transporte e Refeição no local, entre outros.</t>
@@ -82,7 +103,7 @@
     <t xml:space="preserve">Consultor de Vendas</t>
   </si>
   <si>
-    <t xml:space="preserve">Campinas-SP</t>
+    <t xml:space="preserve">Campinas</t>
   </si>
   <si>
     <t xml:space="preserve">Salário Fixo - CLT. Variável Agressiva sem teto. Vale Refeição R$30,73 ao dia. Ass. Médica e Odontológica. Vale Transporte em espécie. Horário: 9h as 18h seg. a sex. Enviar currículo por Whatsapp A/C RH</t>
@@ -98,14 +119,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,12 +151,14 @@
       <color rgb="FFFFFFD7"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -150,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -165,6 +190,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -191,36 +223,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,246 +349,366 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11" t="n">
+        <v>45189</v>
+      </c>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11" t="n">
+        <v>45194</v>
+      </c>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11" t="n">
+        <v>45198</v>
+      </c>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="motoristarodoviario2022@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="tandrade@platlog.com.br"/>
+    <hyperlink ref="F2" r:id="rId1" display="motoristarodoviario2022@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="tandrade@platlog.com.br"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
